--- a/Code/Results/Cases/Case_1_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_112/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.27611090726896</v>
+        <v>7.775553848681341</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.145586601854074</v>
+        <v>3.758242158487112</v>
       </c>
       <c r="E2">
-        <v>29.9487721772739</v>
+        <v>16.5821330812193</v>
       </c>
       <c r="F2">
-        <v>16.19286866576145</v>
+        <v>19.2790344371383</v>
       </c>
       <c r="G2">
-        <v>20.03707250302132</v>
+        <v>20.41577253843935</v>
       </c>
       <c r="H2">
-        <v>7.387013917108243</v>
+        <v>11.97370744959122</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.87932415698637</v>
+        <v>11.53952637577816</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.70538167309371</v>
+        <v>17.13445589548761</v>
       </c>
       <c r="O2">
-        <v>12.13953035970914</v>
+        <v>17.12819954464804</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.915229801711444</v>
+        <v>7.701920712875018</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.961748415165314</v>
+        <v>3.685205191049644</v>
       </c>
       <c r="E3">
-        <v>27.78881948142629</v>
+        <v>15.63701532668809</v>
       </c>
       <c r="F3">
-        <v>15.57636217870765</v>
+        <v>19.23344622197329</v>
       </c>
       <c r="G3">
-        <v>19.0838923244284</v>
+        <v>20.29293657291592</v>
       </c>
       <c r="H3">
-        <v>7.36527837849165</v>
+        <v>12.00830172688339</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.96763890042789</v>
+        <v>11.10627725588193</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.8391870855675</v>
+        <v>17.18192543703669</v>
       </c>
       <c r="O3">
-        <v>11.90111126567135</v>
+        <v>17.15705391767574</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.686844763654587</v>
+        <v>7.658180701587655</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.843761720159547</v>
+        <v>3.639026346392571</v>
       </c>
       <c r="E4">
-        <v>26.39775428789797</v>
+        <v>15.03125312752327</v>
       </c>
       <c r="F4">
-        <v>15.20303450974665</v>
+        <v>19.21176221086434</v>
       </c>
       <c r="G4">
-        <v>18.5022672279885</v>
+        <v>20.22621151936711</v>
       </c>
       <c r="H4">
-        <v>7.358123067143757</v>
+        <v>12.03183791918186</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.38051077930943</v>
+        <v>10.82948156748783</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.92469986695342</v>
+        <v>17.21283981252195</v>
       </c>
       <c r="O4">
-        <v>11.76618313404715</v>
+        <v>17.17951307008911</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.592196966049137</v>
+        <v>7.640746443758189</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.794433405701799</v>
+        <v>3.619886478208135</v>
       </c>
       <c r="E5">
-        <v>25.81428997407595</v>
+        <v>14.77826600100212</v>
       </c>
       <c r="F5">
-        <v>15.05241886265084</v>
+        <v>19.20451750047833</v>
       </c>
       <c r="G5">
-        <v>18.26650860420954</v>
+        <v>20.20123208975739</v>
       </c>
       <c r="H5">
-        <v>7.356704378062886</v>
+        <v>12.04200526744054</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.13448275921934</v>
+        <v>10.71408110500883</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.96038747359145</v>
+        <v>17.22588314129175</v>
       </c>
       <c r="O5">
-        <v>11.71405129138251</v>
+        <v>17.18985395883944</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.576389656315516</v>
+        <v>7.637875640258342</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.786168313153329</v>
+        <v>3.616689309914457</v>
       </c>
       <c r="E6">
-        <v>25.71639580792435</v>
+        <v>14.73589604746348</v>
       </c>
       <c r="F6">
-        <v>15.0275072756234</v>
+        <v>19.20341078323142</v>
       </c>
       <c r="G6">
-        <v>18.22744789537825</v>
+        <v>20.19721847564928</v>
       </c>
       <c r="H6">
-        <v>7.35655748085761</v>
+        <v>12.04372831708821</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.09322495800817</v>
+        <v>10.69476504367038</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.96636405027758</v>
+        <v>17.22807590867906</v>
       </c>
       <c r="O6">
-        <v>11.70556604357254</v>
+        <v>17.19164272006527</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.68557451468111</v>
+        <v>7.657943971156499</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.843101460214627</v>
+        <v>3.638769502911935</v>
       </c>
       <c r="E7">
-        <v>26.38995304244809</v>
+        <v>15.02786569967539</v>
       </c>
       <c r="F7">
-        <v>15.20099682220507</v>
+        <v>19.21165805546455</v>
       </c>
       <c r="G7">
-        <v>18.49908212526663</v>
+        <v>20.22586565446149</v>
       </c>
       <c r="H7">
-        <v>7.358097951247988</v>
+        <v>12.0319727080954</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.37721999953879</v>
+        <v>10.82793562950414</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.92517776341748</v>
+        <v>17.2130139145013</v>
       </c>
       <c r="O7">
-        <v>11.76546856327425</v>
+        <v>17.17964772391144</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.153163561944123</v>
+        <v>7.749872192308528</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.08328002746505</v>
+        <v>3.733343904613907</v>
       </c>
       <c r="E8">
-        <v>29.21730059184193</v>
+        <v>16.26168442563297</v>
       </c>
       <c r="F8">
-        <v>15.9793366497197</v>
+        <v>19.2620105330386</v>
       </c>
       <c r="G8">
-        <v>19.70785668603509</v>
+        <v>20.37162998210168</v>
       </c>
       <c r="H8">
-        <v>7.378199104471681</v>
+        <v>11.98515861675695</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.57070779938836</v>
+        <v>11.39243913903358</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.7508190604304</v>
+        <v>17.15045702090274</v>
       </c>
       <c r="O8">
-        <v>12.05492962194315</v>
+        <v>17.13716201669867</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.011357188651024</v>
+        <v>7.940893604539491</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.512388206375141</v>
+        <v>3.907652333583437</v>
       </c>
       <c r="E9">
-        <v>34.26111622145731</v>
+        <v>18.58296039659888</v>
       </c>
       <c r="F9">
-        <v>17.53869653141871</v>
+        <v>19.41045643064052</v>
       </c>
       <c r="G9">
-        <v>22.09419836661461</v>
+        <v>20.72516011178071</v>
       </c>
       <c r="H9">
-        <v>7.469360433859398</v>
+        <v>11.91161015465655</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.69076879356266</v>
+        <v>12.40986523376614</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.4357136780103</v>
+        <v>17.04176911541525</v>
       </c>
       <c r="O9">
-        <v>12.71439704719299</v>
+        <v>17.09163205230656</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.656459843364019</v>
+        <v>8.086521371934836</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.800670229230047</v>
+        <v>4.028211690046437</v>
       </c>
       <c r="E10">
-        <v>37.68258342892503</v>
+        <v>20.23237390283409</v>
       </c>
       <c r="F10">
-        <v>18.69497625124588</v>
+        <v>19.54923241407178</v>
       </c>
       <c r="G10">
-        <v>23.84354718252989</v>
+        <v>21.02408385219091</v>
       </c>
       <c r="H10">
-        <v>7.571420562925822</v>
+        <v>11.86875889186055</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.1112575933011</v>
+        <v>13.09817664374714</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.22086467307462</v>
+        <v>16.9703852590758</v>
       </c>
       <c r="O10">
-        <v>13.25568955591588</v>
+        <v>17.08139703984631</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.965387009007046</v>
+        <v>8.153642599186256</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.925733629343679</v>
+        <v>4.081293269232784</v>
       </c>
       <c r="E11">
-        <v>39.18252908943528</v>
+        <v>20.94019214055777</v>
       </c>
       <c r="F11">
-        <v>19.22180836131616</v>
+        <v>19.61865100670179</v>
       </c>
       <c r="G11">
-        <v>24.63671545128338</v>
+        <v>21.16805413211683</v>
       </c>
       <c r="H11">
-        <v>7.626212082365232</v>
+        <v>11.85170475613829</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.7275243279263</v>
+        <v>13.39769036683442</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.12683192602292</v>
+        <v>16.93973803132141</v>
       </c>
       <c r="O11">
-        <v>13.51437002970684</v>
+        <v>17.08180954876361</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.079892089337235</v>
+        <v>8.179162161196688</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.972203459841851</v>
+        <v>4.101130330921731</v>
       </c>
       <c r="E12">
-        <v>39.74287073527637</v>
+        <v>21.20214799134854</v>
       </c>
       <c r="F12">
-        <v>19.42133875807959</v>
+        <v>19.64582544905518</v>
       </c>
       <c r="G12">
-        <v>24.93660994328896</v>
+        <v>21.22367146533613</v>
       </c>
       <c r="H12">
-        <v>7.648223045980259</v>
+        <v>11.84559840030725</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.95659209927468</v>
+        <v>13.50910022940463</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.09176627172526</v>
+        <v>16.9283943827463</v>
       </c>
       <c r="O12">
-        <v>13.61412285321254</v>
+        <v>17.08269585908289</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.055341215053533</v>
+        <v>8.17366189443665</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.962235097510519</v>
+        <v>4.096869955324108</v>
       </c>
       <c r="E13">
-        <v>39.62252360447431</v>
+        <v>21.14600097742708</v>
       </c>
       <c r="F13">
-        <v>19.3783660617115</v>
+        <v>19.63993378359989</v>
       </c>
       <c r="G13">
-        <v>24.87204358262555</v>
+        <v>21.21164522622802</v>
       </c>
       <c r="H13">
-        <v>7.643425484383938</v>
+        <v>11.84689785816247</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.90744924233067</v>
+        <v>13.48519626324113</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.09929398486782</v>
+        <v>16.93082580867622</v>
       </c>
       <c r="O13">
-        <v>13.59255925903568</v>
+        <v>17.08247249117226</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.974856945936631</v>
+        <v>8.155740194823551</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.929574622740099</v>
+        <v>4.082930620142458</v>
       </c>
       <c r="E14">
-        <v>39.22877929352286</v>
+        <v>20.96186506074546</v>
       </c>
       <c r="F14">
-        <v>19.23822364045231</v>
+        <v>19.6208689897081</v>
       </c>
       <c r="G14">
-        <v>24.66139748682898</v>
+        <v>21.1726080751599</v>
       </c>
       <c r="H14">
-        <v>7.627997290651729</v>
+        <v>11.8511953293247</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.74645595737194</v>
+        <v>13.40689667487902</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.12393611843961</v>
+        <v>16.93879953997475</v>
       </c>
       <c r="O14">
-        <v>13.52254070313235</v>
+        <v>17.08186782864489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.925235934909988</v>
+        <v>8.144775250689449</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.909452970727838</v>
+        <v>4.074357724680347</v>
       </c>
       <c r="E15">
-        <v>38.98661735381739</v>
+        <v>20.84828573525881</v>
       </c>
       <c r="F15">
-        <v>19.15238419479561</v>
+        <v>19.60930624329327</v>
       </c>
       <c r="G15">
-        <v>24.53230902508889</v>
+        <v>21.14883827666905</v>
       </c>
       <c r="H15">
-        <v>7.618713279303259</v>
+        <v>11.85387347975193</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.6472834181966</v>
+        <v>13.35867276885017</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.13910110878185</v>
+        <v>16.94371775213388</v>
       </c>
       <c r="O15">
-        <v>13.47988649842314</v>
+        <v>17.0815925633303</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.635922450200059</v>
+        <v>8.082150423812138</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.792373397850919</v>
+        <v>4.024706325248706</v>
       </c>
       <c r="E16">
-        <v>37.583460583915</v>
+        <v>20.18526377498149</v>
       </c>
       <c r="F16">
-        <v>18.6605549905062</v>
+        <v>19.54482086248701</v>
       </c>
       <c r="G16">
-        <v>23.79165062517731</v>
+        <v>21.01483161181327</v>
       </c>
       <c r="H16">
-        <v>7.568013235687698</v>
+        <v>11.86992258202627</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.07038098207922</v>
+        <v>13.07832424924664</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.22708527289092</v>
+        <v>16.97242480095802</v>
       </c>
       <c r="O16">
-        <v>13.2390350696847</v>
+        <v>17.0814721937267</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.453995560873691</v>
+        <v>8.043939313829023</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.718980671303843</v>
+        <v>3.9937879444143</v>
       </c>
       <c r="E17">
-        <v>36.70851791868696</v>
+        <v>19.76765750915807</v>
       </c>
       <c r="F17">
-        <v>18.35897429744375</v>
+        <v>19.50686020116409</v>
       </c>
       <c r="G17">
-        <v>23.33653280944692</v>
+        <v>20.93463438972751</v>
       </c>
       <c r="H17">
-        <v>7.539095289572568</v>
+        <v>11.88039358415539</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.70880421730111</v>
+        <v>12.90281499546255</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.28201583528079</v>
+        <v>16.99050270900521</v>
       </c>
       <c r="O17">
-        <v>13.09447139026677</v>
+        <v>17.08269759755239</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.347715375200773</v>
+        <v>8.02204500554039</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.676195771811006</v>
+        <v>3.975839289081588</v>
       </c>
       <c r="E18">
-        <v>36.19992553657705</v>
+        <v>19.52345839110827</v>
       </c>
       <c r="F18">
-        <v>18.18559512408812</v>
+        <v>19.48561929929227</v>
       </c>
       <c r="G18">
-        <v>23.07451622084542</v>
+        <v>20.88926215551418</v>
       </c>
       <c r="H18">
-        <v>7.523246146401358</v>
+        <v>11.88664575649735</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.49801732154395</v>
+        <v>12.80058903493372</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.31395831586686</v>
+        <v>17.0010725247304</v>
       </c>
       <c r="O18">
-        <v>13.01249293873464</v>
+        <v>17.08387944801963</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.31537350147762</v>
+        <v>8.014647064932912</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.661611915319464</v>
+        <v>3.969734137846628</v>
       </c>
       <c r="E19">
-        <v>36.02679276911221</v>
+        <v>19.44008822797822</v>
       </c>
       <c r="F19">
-        <v>18.12690922850576</v>
+        <v>19.4785298489601</v>
       </c>
       <c r="G19">
-        <v>22.9857632981213</v>
+        <v>20.87403105252487</v>
       </c>
       <c r="H19">
-        <v>7.518012669727262</v>
+        <v>11.88880202714657</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.42616473519786</v>
+        <v>12.76575939727473</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.32483295731885</v>
+        <v>17.00468082617223</v>
       </c>
       <c r="O19">
-        <v>12.98493737445924</v>
+        <v>17.0843614843986</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.473531609005413</v>
+        <v>8.047998458674064</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.726852701982573</v>
+        <v>3.997096436848766</v>
       </c>
       <c r="E20">
-        <v>36.80220736467571</v>
+        <v>19.812526468241</v>
       </c>
       <c r="F20">
-        <v>18.39107032792056</v>
+        <v>19.51083991699429</v>
       </c>
       <c r="G20">
-        <v>23.38500700119317</v>
+        <v>20.94309372373494</v>
       </c>
       <c r="H20">
-        <v>7.542092110318409</v>
+        <v>11.87925516577478</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.74758630487714</v>
+        <v>12.92163090230019</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.27613231166745</v>
+        <v>16.98856050114636</v>
       </c>
       <c r="O20">
-        <v>13.1097392358061</v>
+        <v>17.08251776923413</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.998564200476773</v>
+        <v>8.161001645408783</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.939192028244892</v>
+        <v>4.087032179491104</v>
       </c>
       <c r="E21">
-        <v>39.34463531943157</v>
+        <v>21.0161149778842</v>
       </c>
       <c r="F21">
-        <v>19.27938660147719</v>
+        <v>19.62644485102844</v>
       </c>
       <c r="G21">
-        <v>24.72328227393785</v>
+        <v>21.18404481958074</v>
       </c>
       <c r="H21">
-        <v>7.632494181934682</v>
+        <v>11.8499235063415</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.79386016042904</v>
+        <v>13.42995008626682</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.11668331608442</v>
+        <v>16.93645036261964</v>
       </c>
       <c r="O21">
-        <v>13.54305802827223</v>
+        <v>17.08202561087586</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.327266358822515</v>
+        <v>8.23544071614792</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.072781365967024</v>
+        <v>4.144268540075872</v>
       </c>
       <c r="E22">
-        <v>40.96189321260464</v>
+        <v>21.76730853554939</v>
       </c>
       <c r="F22">
-        <v>19.8601107203363</v>
+        <v>19.70716103304276</v>
       </c>
       <c r="G22">
-        <v>25.61007402006675</v>
+        <v>21.34790057866475</v>
       </c>
       <c r="H22">
-        <v>7.698964358867465</v>
+        <v>11.83280379749725</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.45261445765571</v>
+        <v>13.75043375987534</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.01564202440136</v>
+        <v>16.90391896822141</v>
       </c>
       <c r="O22">
-        <v>13.83673310852906</v>
+        <v>17.08595970486436</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.153144333199551</v>
+        <v>8.195665396153029</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.001961077203879</v>
+        <v>4.113864764761852</v>
       </c>
       <c r="E23">
-        <v>40.10262346482493</v>
+        <v>21.36961256187053</v>
       </c>
       <c r="F23">
-        <v>19.55017451656735</v>
+        <v>19.66361511818212</v>
       </c>
       <c r="G23">
-        <v>25.13011681861108</v>
+        <v>21.25988104800857</v>
       </c>
       <c r="H23">
-        <v>7.662792277142063</v>
+        <v>11.84175301850421</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.10331159652539</v>
+        <v>13.58047478658009</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.06927611716361</v>
+        <v>16.92114223148145</v>
       </c>
       <c r="O23">
-        <v>13.67903111082472</v>
+        <v>17.08347034429667</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.464704621269712</v>
+        <v>8.046163087725397</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.723295594844852</v>
+        <v>3.995601206290842</v>
       </c>
       <c r="E24">
-        <v>36.75986776952691</v>
+        <v>19.79225402197298</v>
       </c>
       <c r="F24">
-        <v>18.37655969420723</v>
+        <v>19.50903886954215</v>
       </c>
       <c r="G24">
-        <v>23.36309294361897</v>
+        <v>20.93926696796733</v>
       </c>
       <c r="H24">
-        <v>7.540734834601155</v>
+        <v>11.87976912130356</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.73006199214585</v>
+        <v>12.91312834871081</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.27879112535856</v>
+        <v>16.98943802319538</v>
       </c>
       <c r="O24">
-        <v>13.10283311380765</v>
+        <v>17.08259758274772</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.78607532880001</v>
+        <v>7.88819599215838</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.400953502972057</v>
+        <v>3.861767063588252</v>
       </c>
       <c r="E25">
-        <v>32.9481635203731</v>
+        <v>17.93763362085426</v>
       </c>
       <c r="F25">
-        <v>17.11438438011493</v>
+        <v>19.365029617229</v>
       </c>
       <c r="G25">
-        <v>21.44852212514223</v>
+        <v>20.62247266412152</v>
       </c>
       <c r="H25">
-        <v>7.438790913710126</v>
+        <v>11.92954672732692</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.14119561358557</v>
+        <v>12.14472845839613</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.51805924169838</v>
+        <v>17.06968075015475</v>
       </c>
       <c r="O25">
-        <v>12.52605961160779</v>
+        <v>17.09988314962726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_112/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.775553848681341</v>
+        <v>7.276110907268944</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.758242158487112</v>
+        <v>4.145586601854127</v>
       </c>
       <c r="E2">
-        <v>16.5821330812193</v>
+        <v>29.94877217727386</v>
       </c>
       <c r="F2">
-        <v>19.2790344371383</v>
+        <v>16.19286866576143</v>
       </c>
       <c r="G2">
-        <v>20.41577253843935</v>
+        <v>20.03707250302133</v>
       </c>
       <c r="H2">
-        <v>11.97370744959122</v>
+        <v>7.387013917108145</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.53952637577816</v>
+        <v>16.87932415698639</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.13445589548761</v>
+        <v>11.70538167309368</v>
       </c>
       <c r="O2">
-        <v>17.12819954464804</v>
+        <v>12.1395303597091</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.701920712875018</v>
+        <v>6.915229801711437</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.685205191049644</v>
+        <v>3.96174841516522</v>
       </c>
       <c r="E3">
-        <v>15.63701532668809</v>
+        <v>27.78881948142627</v>
       </c>
       <c r="F3">
-        <v>19.23344622197329</v>
+        <v>15.57636217870762</v>
       </c>
       <c r="G3">
-        <v>20.29293657291592</v>
+        <v>19.08389232442824</v>
       </c>
       <c r="H3">
-        <v>12.00830172688339</v>
+        <v>7.365278378491647</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.10627725588193</v>
+        <v>15.96763890042794</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.18192543703669</v>
+        <v>11.83918708556751</v>
       </c>
       <c r="O3">
-        <v>17.15705391767574</v>
+        <v>11.90111126567129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.658180701587655</v>
+        <v>6.686844763654559</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.639026346392571</v>
+        <v>3.843761720159603</v>
       </c>
       <c r="E4">
-        <v>15.03125312752327</v>
+        <v>26.39775428789802</v>
       </c>
       <c r="F4">
-        <v>19.21176221086434</v>
+        <v>15.20303450974649</v>
       </c>
       <c r="G4">
-        <v>20.22621151936711</v>
+        <v>18.50226722798837</v>
       </c>
       <c r="H4">
-        <v>12.03183791918186</v>
+        <v>7.358123067143647</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.82948156748783</v>
+        <v>15.38051077930957</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.21283981252195</v>
+        <v>11.92469986695339</v>
       </c>
       <c r="O4">
-        <v>17.17951307008911</v>
+        <v>11.76618313404695</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.640746443758189</v>
+        <v>6.592196966049128</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.619886478208135</v>
+        <v>3.794433405701793</v>
       </c>
       <c r="E5">
-        <v>14.77826600100212</v>
+        <v>25.81428997407592</v>
       </c>
       <c r="F5">
-        <v>19.20451750047833</v>
+        <v>15.05241886265078</v>
       </c>
       <c r="G5">
-        <v>20.20123208975739</v>
+        <v>18.26650860420946</v>
       </c>
       <c r="H5">
-        <v>12.04200526744054</v>
+        <v>7.356704378062886</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.71408110500883</v>
+        <v>15.13448275921944</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.22588314129175</v>
+        <v>11.96038747359149</v>
       </c>
       <c r="O5">
-        <v>17.18985395883944</v>
+        <v>11.71405129138246</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.637875640258342</v>
+        <v>6.576389656315448</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.616689309914457</v>
+        <v>3.786168313153367</v>
       </c>
       <c r="E6">
-        <v>14.73589604746348</v>
+        <v>25.71639580792433</v>
       </c>
       <c r="F6">
-        <v>19.20341078323142</v>
+        <v>15.02750727562336</v>
       </c>
       <c r="G6">
-        <v>20.19721847564928</v>
+        <v>18.22744789537809</v>
       </c>
       <c r="H6">
-        <v>12.04372831708821</v>
+        <v>7.35655748085766</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.69476504367038</v>
+        <v>15.09322495800818</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.22807590867906</v>
+        <v>11.96636405027755</v>
       </c>
       <c r="O6">
-        <v>17.19164272006527</v>
+        <v>11.7055660435725</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.657943971156499</v>
+        <v>6.685574514681123</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.638769502911935</v>
+        <v>3.843101460214582</v>
       </c>
       <c r="E7">
-        <v>15.02786569967539</v>
+        <v>26.38995304244805</v>
       </c>
       <c r="F7">
-        <v>19.21165805546455</v>
+        <v>15.20099682220496</v>
       </c>
       <c r="G7">
-        <v>20.22586565446149</v>
+        <v>18.49908212526641</v>
       </c>
       <c r="H7">
-        <v>12.0319727080954</v>
+        <v>7.358097951247943</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.82793562950414</v>
+        <v>15.37721999953889</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.2130139145013</v>
+        <v>11.92517776341745</v>
       </c>
       <c r="O7">
-        <v>17.17964772391144</v>
+        <v>11.76546856327411</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.749872192308528</v>
+        <v>7.153163561944133</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.733343904613907</v>
+        <v>4.083280027464861</v>
       </c>
       <c r="E8">
-        <v>16.26168442563297</v>
+        <v>29.21730059184192</v>
       </c>
       <c r="F8">
-        <v>19.2620105330386</v>
+        <v>15.9793366497197</v>
       </c>
       <c r="G8">
-        <v>20.37162998210168</v>
+        <v>19.70785668603506</v>
       </c>
       <c r="H8">
-        <v>11.98515861675695</v>
+        <v>7.378199104471636</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.39243913903358</v>
+        <v>16.57070779938842</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.15045702090274</v>
+        <v>11.7508190604304</v>
       </c>
       <c r="O8">
-        <v>17.13716201669867</v>
+        <v>12.0549296219431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.940893604539491</v>
+        <v>8.011357188650999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.907652333583437</v>
+        <v>4.512388206375155</v>
       </c>
       <c r="E9">
-        <v>18.58296039659888</v>
+        <v>34.26111622145729</v>
       </c>
       <c r="F9">
-        <v>19.41045643064052</v>
+        <v>17.5386965314187</v>
       </c>
       <c r="G9">
-        <v>20.72516011178071</v>
+        <v>22.09419836661464</v>
       </c>
       <c r="H9">
-        <v>11.91161015465655</v>
+        <v>7.469360433859353</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.40986523376614</v>
+        <v>18.69076879356269</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.04176911541525</v>
+        <v>11.43571367801023</v>
       </c>
       <c r="O9">
-        <v>17.09163205230656</v>
+        <v>12.71439704719296</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.086521371934836</v>
+        <v>8.656459843364042</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.028211690046437</v>
+        <v>4.800670229230061</v>
       </c>
       <c r="E10">
-        <v>20.23237390283409</v>
+        <v>37.68258342892515</v>
       </c>
       <c r="F10">
-        <v>19.54923241407178</v>
+        <v>18.69497625124583</v>
       </c>
       <c r="G10">
-        <v>21.02408385219091</v>
+        <v>23.84354718252989</v>
       </c>
       <c r="H10">
-        <v>11.86875889186055</v>
+        <v>7.571420562925795</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.09817664374714</v>
+        <v>20.1112575933012</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.9703852590758</v>
+        <v>11.22086467307459</v>
       </c>
       <c r="O10">
-        <v>17.08139703984631</v>
+        <v>13.25568955591583</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.153642599186256</v>
+        <v>8.965387009007031</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.081293269232784</v>
+        <v>4.925733629343722</v>
       </c>
       <c r="E11">
-        <v>20.94019214055777</v>
+        <v>39.18252908943546</v>
       </c>
       <c r="F11">
-        <v>19.61865100670179</v>
+        <v>19.22180836131614</v>
       </c>
       <c r="G11">
-        <v>21.16805413211683</v>
+        <v>24.63671545128339</v>
       </c>
       <c r="H11">
-        <v>11.85170475613829</v>
+        <v>7.6262120823652</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.39769036683442</v>
+        <v>20.72752432792633</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.93973803132141</v>
+        <v>11.12683192602286</v>
       </c>
       <c r="O11">
-        <v>17.08180954876361</v>
+        <v>13.51437002970678</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.179162161196688</v>
+        <v>9.079892089337218</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.101130330921731</v>
+        <v>4.972203459841829</v>
       </c>
       <c r="E12">
-        <v>21.20214799134854</v>
+        <v>39.74287073527643</v>
       </c>
       <c r="F12">
-        <v>19.64582544905518</v>
+        <v>19.42133875807954</v>
       </c>
       <c r="G12">
-        <v>21.22367146533613</v>
+        <v>24.93660994328895</v>
       </c>
       <c r="H12">
-        <v>11.84559840030725</v>
+        <v>7.648223045980214</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.50910022940463</v>
+        <v>20.95659209927475</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.9283943827463</v>
+        <v>11.09176627172523</v>
       </c>
       <c r="O12">
-        <v>17.08269585908289</v>
+        <v>13.61412285321247</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.17366189443665</v>
+        <v>9.055341215053524</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.096869955324108</v>
+        <v>4.962235097510556</v>
       </c>
       <c r="E13">
-        <v>21.14600097742708</v>
+        <v>39.6225236044744</v>
       </c>
       <c r="F13">
-        <v>19.63993378359989</v>
+        <v>19.37836606171149</v>
       </c>
       <c r="G13">
-        <v>21.21164522622802</v>
+        <v>24.87204358262556</v>
       </c>
       <c r="H13">
-        <v>11.84689785816247</v>
+        <v>7.643425484383955</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.48519626324113</v>
+        <v>20.90744924233065</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.93082580867622</v>
+        <v>11.09929398486782</v>
       </c>
       <c r="O13">
-        <v>17.08247249117226</v>
+        <v>13.59255925903566</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.155740194823551</v>
+        <v>8.974856945936716</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.082930620142458</v>
+        <v>4.929574622740099</v>
       </c>
       <c r="E14">
-        <v>20.96186506074546</v>
+        <v>39.22877929352289</v>
       </c>
       <c r="F14">
-        <v>19.6208689897081</v>
+        <v>19.23822364045228</v>
       </c>
       <c r="G14">
-        <v>21.1726080751599</v>
+        <v>24.66139748682902</v>
       </c>
       <c r="H14">
-        <v>11.8511953293247</v>
+        <v>7.627997290651717</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.40689667487902</v>
+        <v>20.74645595737199</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.93879953997475</v>
+        <v>11.12393611843958</v>
       </c>
       <c r="O14">
-        <v>17.08186782864489</v>
+        <v>13.52254070313231</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.144775250689449</v>
+        <v>8.925235934909944</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.074357724680347</v>
+        <v>4.909452970727751</v>
       </c>
       <c r="E15">
-        <v>20.84828573525881</v>
+        <v>38.98661735381734</v>
       </c>
       <c r="F15">
-        <v>19.60930624329327</v>
+        <v>19.15238419479558</v>
       </c>
       <c r="G15">
-        <v>21.14883827666905</v>
+        <v>24.53230902508884</v>
       </c>
       <c r="H15">
-        <v>11.85387347975193</v>
+        <v>7.618713279303211</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.35867276885017</v>
+        <v>20.64728341819664</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.94371775213388</v>
+        <v>11.13910110878182</v>
       </c>
       <c r="O15">
-        <v>17.0815925633303</v>
+        <v>13.47988649842307</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.082150423812138</v>
+        <v>8.635922450200066</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.024706325248706</v>
+        <v>4.79237339785097</v>
       </c>
       <c r="E16">
-        <v>20.18526377498149</v>
+        <v>37.58346058391496</v>
       </c>
       <c r="F16">
-        <v>19.54482086248701</v>
+        <v>18.66055499050618</v>
       </c>
       <c r="G16">
-        <v>21.01483161181327</v>
+        <v>23.79165062517731</v>
       </c>
       <c r="H16">
-        <v>11.86992258202627</v>
+        <v>7.568013235687698</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.07832424924664</v>
+        <v>20.0703809820792</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.97242480095802</v>
+        <v>11.22708527289092</v>
       </c>
       <c r="O16">
-        <v>17.0814721937267</v>
+        <v>13.2390350696847</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.043939313829023</v>
+        <v>8.453995560873713</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.9937879444143</v>
+        <v>4.718980671303836</v>
       </c>
       <c r="E17">
-        <v>19.76765750915807</v>
+        <v>36.70851791868699</v>
       </c>
       <c r="F17">
-        <v>19.50686020116409</v>
+        <v>18.3589742974437</v>
       </c>
       <c r="G17">
-        <v>20.93463438972751</v>
+        <v>23.33653280944686</v>
       </c>
       <c r="H17">
-        <v>11.88039358415539</v>
+        <v>7.539095289572563</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.90281499546255</v>
+        <v>19.70880421730118</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.99050270900521</v>
+        <v>11.28201583528083</v>
       </c>
       <c r="O17">
-        <v>17.08269759755239</v>
+        <v>13.09447139026673</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.02204500554039</v>
+        <v>8.347715375200755</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.975839289081588</v>
+        <v>4.676195771811019</v>
       </c>
       <c r="E18">
-        <v>19.52345839110827</v>
+        <v>36.19992553657703</v>
       </c>
       <c r="F18">
-        <v>19.48561929929227</v>
+        <v>18.18559512408812</v>
       </c>
       <c r="G18">
-        <v>20.88926215551418</v>
+        <v>23.07451622084544</v>
       </c>
       <c r="H18">
-        <v>11.88664575649735</v>
+        <v>7.523246146401316</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.80058903493372</v>
+        <v>19.49801732154398</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.0010725247304</v>
+        <v>11.31395831586683</v>
       </c>
       <c r="O18">
-        <v>17.08387944801963</v>
+        <v>13.01249293873461</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.014647064932912</v>
+        <v>8.315373501477628</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.969734137846628</v>
+        <v>4.661611915319433</v>
       </c>
       <c r="E19">
-        <v>19.44008822797822</v>
+        <v>36.02679276911226</v>
       </c>
       <c r="F19">
-        <v>19.4785298489601</v>
+        <v>18.12690922850575</v>
       </c>
       <c r="G19">
-        <v>20.87403105252487</v>
+        <v>22.98576329812127</v>
       </c>
       <c r="H19">
-        <v>11.88880202714657</v>
+        <v>7.518012669727145</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.76575939727473</v>
+        <v>19.4261647351979</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.00468082617223</v>
+        <v>11.32483295731885</v>
       </c>
       <c r="O19">
-        <v>17.0843614843986</v>
+        <v>12.9849373744592</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.047998458674064</v>
+        <v>8.473531609005413</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.997096436848766</v>
+        <v>4.726852701982548</v>
       </c>
       <c r="E20">
-        <v>19.812526468241</v>
+        <v>36.80220736467573</v>
       </c>
       <c r="F20">
-        <v>19.51083991699429</v>
+        <v>18.3910703279205</v>
       </c>
       <c r="G20">
-        <v>20.94309372373494</v>
+        <v>23.38500700119311</v>
       </c>
       <c r="H20">
-        <v>11.87925516577478</v>
+        <v>7.542092110318332</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.92163090230019</v>
+        <v>19.74758630487721</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.98856050114636</v>
+        <v>11.27613231166742</v>
       </c>
       <c r="O20">
-        <v>17.08251776923413</v>
+        <v>13.10973923580601</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.161001645408783</v>
+        <v>8.998564200476784</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.087032179491104</v>
+        <v>4.939192028244943</v>
       </c>
       <c r="E21">
-        <v>21.0161149778842</v>
+        <v>39.34463531943159</v>
       </c>
       <c r="F21">
-        <v>19.62644485102844</v>
+        <v>19.27938660147716</v>
       </c>
       <c r="G21">
-        <v>21.18404481958074</v>
+        <v>24.72328227393783</v>
       </c>
       <c r="H21">
-        <v>11.8499235063415</v>
+        <v>7.632494181934642</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.42995008626682</v>
+        <v>20.79386016042911</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.93645036261964</v>
+        <v>11.11668331608439</v>
       </c>
       <c r="O21">
-        <v>17.08202561087586</v>
+        <v>13.54305802827217</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.23544071614792</v>
+        <v>9.327266358822536</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.144268540075872</v>
+        <v>5.072781365967097</v>
       </c>
       <c r="E22">
-        <v>21.76730853554939</v>
+        <v>40.96189321260474</v>
       </c>
       <c r="F22">
-        <v>19.70716103304276</v>
+        <v>19.8601107203363</v>
       </c>
       <c r="G22">
-        <v>21.34790057866475</v>
+        <v>25.61007402006681</v>
       </c>
       <c r="H22">
-        <v>11.83280379749725</v>
+        <v>7.698964358867419</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.75043375987534</v>
+        <v>21.45261445765576</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.90391896822141</v>
+        <v>11.01564202440133</v>
       </c>
       <c r="O22">
-        <v>17.08595970486436</v>
+        <v>13.83673310852904</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.195665396153029</v>
+        <v>9.153144333199627</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.113864764761852</v>
+        <v>5.001961077203879</v>
       </c>
       <c r="E23">
-        <v>21.36961256187053</v>
+        <v>40.10262346482493</v>
       </c>
       <c r="F23">
-        <v>19.66361511818212</v>
+        <v>19.55017451656731</v>
       </c>
       <c r="G23">
-        <v>21.25988104800857</v>
+        <v>25.13011681861108</v>
       </c>
       <c r="H23">
-        <v>11.84175301850421</v>
+        <v>7.662792277142031</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.58047478658009</v>
+        <v>21.10331159652549</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.92114223148145</v>
+        <v>11.06927611716354</v>
       </c>
       <c r="O23">
-        <v>17.08347034429667</v>
+        <v>13.67903111082464</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.046163087725397</v>
+        <v>8.464704621269762</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.995601206290842</v>
+        <v>4.723295594844828</v>
       </c>
       <c r="E24">
-        <v>19.79225402197298</v>
+        <v>36.75986776952693</v>
       </c>
       <c r="F24">
-        <v>19.50903886954215</v>
+        <v>18.3765596942072</v>
       </c>
       <c r="G24">
-        <v>20.93926696796733</v>
+        <v>23.36309294361897</v>
       </c>
       <c r="H24">
-        <v>11.87976912130356</v>
+        <v>7.54073483460104</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.91312834871081</v>
+        <v>19.73006199214596</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.98943802319538</v>
+        <v>11.27879112535855</v>
       </c>
       <c r="O24">
-        <v>17.08259758274772</v>
+        <v>13.10283311380759</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.88819599215838</v>
+        <v>7.786075328799963</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.861767063588252</v>
+        <v>4.400953502972063</v>
       </c>
       <c r="E25">
-        <v>17.93763362085426</v>
+        <v>32.94816352037306</v>
       </c>
       <c r="F25">
-        <v>19.365029617229</v>
+        <v>17.1143843801149</v>
       </c>
       <c r="G25">
-        <v>20.62247266412152</v>
+        <v>21.44852212514219</v>
       </c>
       <c r="H25">
-        <v>11.92954672732692</v>
+        <v>7.43879091371009</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.14472845839613</v>
+        <v>18.1411956135856</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.06968075015475</v>
+        <v>11.51805924169834</v>
       </c>
       <c r="O25">
-        <v>17.09988314962726</v>
+        <v>12.52605961160775</v>
       </c>
     </row>
   </sheetData>
